--- a/Templates/ExtractionPlate_Template.xlsx
+++ b/Templates/ExtractionPlate_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Bisanz_Data/ExtractionPlates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB37269-EF5A-8A49-ACBD-A9CB604922FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CA5002-88C3-D542-AE55-F958BCE12DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="262">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>PROJECT PREFIXES HERE</t>
+  </si>
+  <si>
+    <t>Concentration_ngul</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1426,7 +1429,7 @@
     </xf>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1453,7 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1468,9 +1471,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1528,340 +1528,7 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="標準 2" xfId="42" xr:uid="{371649E2-9C7A-BF42-8EA4-1B3F558ABFA2}"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -2254,7 +1921,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2344,7 +2011,7 @@
       <c r="A8" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>260</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -2353,7 +2020,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -2383,10 +2050,10 @@
       <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="20" t="str">
+      <c r="B17" s="19" t="str">
         <f>$B$2&amp; CHAR(10) &amp; $B$6 &amp; CHAR(10) &amp; $B$4  &amp; CHAR(10) &amp; TEXT($B$3,"yyyy-mm-dd")</f>
         <v>Plate ID HERE
 gDNA
@@ -2572,7 +2239,7 @@
       <c r="E1" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="18" t="str">
+      <c r="F1" s="11" t="str">
         <f>TEXT(PlateInfo!$B$3,"yyyy-mm-dd")</f>
         <v>DATE HERE</v>
       </c>
@@ -3246,16 +2913,16 @@
     <row r="60" ht="68" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="B3:M10">
-    <cfRule type="containsText" dxfId="43" priority="1" stopIfTrue="1" operator="containsText" text="Zymo">
+    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="Zymo">
       <formula>NOT(ISERROR(SEARCH("Zymo",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="NTC">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="NTC">
       <formula>NOT(ISERROR(SEARCH("NTC",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="ExtCon">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="ExtCon">
       <formula>NOT(ISERROR(SEARCH("ExtCon",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="4" stopIfTrue="1" operator="containsText" text="Empty_">
+    <cfRule type="containsText" dxfId="0" priority="4" stopIfTrue="1" operator="containsText" text="Empty_">
       <formula>NOT(ISERROR(SEARCH("Empty_",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3266,27 +2933,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>Layout!$B$3</f>
         <v>Empty_A1</v>
@@ -3294,8 +2965,12 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>Concentration_ngul!$B$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>Layout!$B$4</f>
         <v>Empty_B1</v>
@@ -3303,8 +2978,12 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f>Concentration_ngul!$B$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>Layout!$B$5</f>
         <v>Empty_C1</v>
@@ -3312,8 +2991,12 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f>Concentration_ngul!$B$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>Layout!$B$6</f>
         <v>Empty_D1</v>
@@ -3321,8 +3004,12 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f>Concentration_ngul!$B$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>Layout!$B$7</f>
         <v>Empty_E1</v>
@@ -3330,8 +3017,12 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f>Concentration_ngul!$B$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>Layout!$B$8</f>
         <v>Empty_F1</v>
@@ -3339,8 +3030,12 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f>Concentration_ngul!$B$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>Layout!$B$9</f>
         <v>Empty_G1</v>
@@ -3348,8 +3043,12 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f>Concentration_ngul!$B$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>Layout!$B$10</f>
         <v>Empty_H1</v>
@@ -3357,8 +3056,12 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f>Concentration_ngul!$B$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>Layout!$C$3</f>
         <v>Empty_A2</v>
@@ -3366,8 +3069,12 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f>Concentration_ngul!$C$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>Layout!$C$4</f>
         <v>Empty_B2</v>
@@ -3375,8 +3082,12 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f>Concentration_ngul!$C$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>Layout!$C$5</f>
         <v>Empty_C2</v>
@@ -3384,8 +3095,12 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f>Concentration_ngul!$C$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>Layout!$C$6</f>
         <v>Empty_D2</v>
@@ -3393,8 +3108,12 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f>Concentration_ngul!$C$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>Layout!$C$7</f>
         <v>Empty_E2</v>
@@ -3402,8 +3121,12 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f>Concentration_ngul!$C$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>Layout!$C$8</f>
         <v>Empty_F2</v>
@@ -3411,8 +3134,12 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f>Concentration_ngul!$C$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>Layout!$C$9</f>
         <v>Empty_G2</v>
@@ -3420,8 +3147,12 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f>Concentration_ngul!$C$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>Layout!$C$10</f>
         <v>Empty_H2</v>
@@ -3429,8 +3160,12 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>Concentration_ngul!$C$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>Layout!$D$3</f>
         <v>Empty_A3</v>
@@ -3438,8 +3173,12 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f>Concentration_ngul!$D$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>Layout!$D$4</f>
         <v>Empty_B3</v>
@@ -3447,8 +3186,12 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f>Concentration_ngul!$D$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>Layout!$D$5</f>
         <v>Empty_C3</v>
@@ -3456,8 +3199,12 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f>Concentration_ngul!$D$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>Layout!$D$6</f>
         <v>Empty_D3</v>
@@ -3465,8 +3212,12 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>Concentration_ngul!$D$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>Layout!$D$7</f>
         <v>Empty_E3</v>
@@ -3474,8 +3225,12 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f>Concentration_ngul!$D$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>Layout!$D$8</f>
         <v>Empty_F3</v>
@@ -3483,8 +3238,12 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f>Concentration_ngul!$D$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>Layout!$D$9</f>
         <v>Empty_G3</v>
@@ -3492,8 +3251,12 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f>Concentration_ngul!$D$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>Layout!$D$10</f>
         <v>Empty_H3</v>
@@ -3501,8 +3264,12 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f>Concentration_ngul!$D$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>Layout!$E$3</f>
         <v>Empty_A4</v>
@@ -3510,8 +3277,12 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f>Concentration_ngul!$E$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>Layout!$E$4</f>
         <v>Empty_B4</v>
@@ -3519,8 +3290,12 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f>Concentration_ngul!$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>Layout!$E$5</f>
         <v>Empty_C4</v>
@@ -3528,8 +3303,12 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f>Concentration_ngul!$E$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>Layout!$E$6</f>
         <v>Empty_D4</v>
@@ -3537,8 +3316,12 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f>Concentration_ngul!$E$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>Layout!$E$7</f>
         <v>Empty_E4</v>
@@ -3546,8 +3329,12 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f>Concentration_ngul!$E$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>Layout!$E$8</f>
         <v>Empty_F4</v>
@@ -3555,8 +3342,12 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f>Concentration_ngul!$E$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>Layout!$E$9</f>
         <v>Empty_G4</v>
@@ -3564,8 +3355,12 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f>Concentration_ngul!$E$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>Layout!$E$10</f>
         <v>Empty_H4</v>
@@ -3573,8 +3368,12 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f>Concentration_ngul!$E$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>Layout!$F$3</f>
         <v>Empty_A5</v>
@@ -3582,8 +3381,12 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f>Concentration_ngul!$F$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>Layout!$F$4</f>
         <v>Empty_B5</v>
@@ -3591,8 +3394,12 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f>Concentration_ngul!$F$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>Layout!$F$5</f>
         <v>Empty_C5</v>
@@ -3600,8 +3407,12 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f>Concentration_ngul!$F$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>Layout!$F$6</f>
         <v>Empty_D5</v>
@@ -3609,8 +3420,12 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f>Concentration_ngul!$F$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>Layout!$F$7</f>
         <v>Empty_E5</v>
@@ -3618,8 +3433,12 @@
       <c r="B38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f>Concentration_ngul!$F$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>Layout!$F$8</f>
         <v>Empty_F5</v>
@@ -3627,8 +3446,12 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <f>Concentration_ngul!$F$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f>Layout!$F$9</f>
         <v>Empty_G5</v>
@@ -3636,8 +3459,12 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f>Concentration_ngul!$F$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f>Layout!$F$10</f>
         <v>Empty_H5</v>
@@ -3645,8 +3472,12 @@
       <c r="B41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <f>Concentration_ngul!$F$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>Layout!$G$3</f>
         <v>Empty_A6</v>
@@ -3654,8 +3485,12 @@
       <c r="B42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <f>Concentration_ngul!$G$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>Layout!$G$4</f>
         <v>Empty_B6</v>
@@ -3663,8 +3498,12 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <f>Concentration_ngul!$G$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>Layout!$G$5</f>
         <v>Empty_C6</v>
@@ -3672,8 +3511,12 @@
       <c r="B44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <f>Concentration_ngul!$G$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>Layout!$G$6</f>
         <v>Empty_D6</v>
@@ -3681,8 +3524,12 @@
       <c r="B45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <f>Concentration_ngul!$G$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>Layout!$G$7</f>
         <v>Empty_E6</v>
@@ -3690,8 +3537,12 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <f>Concentration_ngul!$G$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>Layout!$G$8</f>
         <v>Empty_F6</v>
@@ -3699,8 +3550,12 @@
       <c r="B47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <f>Concentration_ngul!$G$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>Layout!$G$9</f>
         <v>Empty_G6</v>
@@ -3708,8 +3563,12 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <f>Concentration_ngul!$G$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>Layout!$G$10</f>
         <v>Empty_H6</v>
@@ -3717,8 +3576,12 @@
       <c r="B49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <f>Concentration_ngul!$G$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>Layout!$H$3</f>
         <v>Empty_A7</v>
@@ -3726,8 +3589,12 @@
       <c r="B50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <f>Concentration_ngul!$H$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>Layout!$H$4</f>
         <v>Empty_B7</v>
@@ -3735,8 +3602,12 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <f>Concentration_ngul!$H$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>Layout!$H$5</f>
         <v>Empty_C7</v>
@@ -3744,8 +3615,12 @@
       <c r="B52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <f>Concentration_ngul!$H$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>Layout!$H$6</f>
         <v>Empty_D7</v>
@@ -3753,8 +3628,12 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <f>Concentration_ngul!$H$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>Layout!$H$7</f>
         <v>Empty_E7</v>
@@ -3762,8 +3641,12 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <f>Concentration_ngul!$H$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>Layout!$H$8</f>
         <v>Empty_F7</v>
@@ -3771,8 +3654,12 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <f>Concentration_ngul!$H$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f>Layout!$H$9</f>
         <v>Empty_G7</v>
@@ -3780,8 +3667,12 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <f>Concentration_ngul!$H$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f>Layout!$H$10</f>
         <v>Empty_H7</v>
@@ -3789,8 +3680,12 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <f>Concentration_ngul!$H$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>Layout!$I$3</f>
         <v>Empty_A8</v>
@@ -3798,8 +3693,12 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <f>Concentration_ngul!$I$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>Layout!$I$4</f>
         <v>Empty_B8</v>
@@ -3807,8 +3706,12 @@
       <c r="B59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <f>Concentration_ngul!$I$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>Layout!$I$5</f>
         <v>Empty_C8</v>
@@ -3816,8 +3719,12 @@
       <c r="B60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <f>Concentration_ngul!$I$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>Layout!$I$6</f>
         <v>Empty_D8</v>
@@ -3825,8 +3732,12 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <f>Concentration_ngul!$I$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>Layout!$I$7</f>
         <v>Empty_E8</v>
@@ -3834,8 +3745,12 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <f>Concentration_ngul!$I$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>Layout!$I$8</f>
         <v>Empty_F8</v>
@@ -3843,8 +3758,12 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <f>Concentration_ngul!$I$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f>Layout!$I$9</f>
         <v>Empty_G8</v>
@@ -3852,8 +3771,12 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <f>Concentration_ngul!$I$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f>Layout!$I$10</f>
         <v>Empty_H8</v>
@@ -3861,8 +3784,12 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <f>Concentration_ngul!$I$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>Layout!$J$3</f>
         <v>Empty_A9</v>
@@ -3870,8 +3797,12 @@
       <c r="B66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <f>Concentration_ngul!$J$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>Layout!$J$4</f>
         <v>Empty_B9</v>
@@ -3879,8 +3810,12 @@
       <c r="B67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <f>Concentration_ngul!$J$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>Layout!$J$5</f>
         <v>Empty_C9</v>
@@ -3888,8 +3823,12 @@
       <c r="B68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <f>Concentration_ngul!$J$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>Layout!$J$6</f>
         <v>Empty_D9</v>
@@ -3897,8 +3836,12 @@
       <c r="B69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <f>Concentration_ngul!$J$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>Layout!$J$7</f>
         <v>Empty_E9</v>
@@ -3906,8 +3849,12 @@
       <c r="B70" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <f>Concentration_ngul!$J$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>Layout!$J$8</f>
         <v>Empty_F9</v>
@@ -3915,8 +3862,12 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <f>Concentration_ngul!$J$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f>Layout!$J$9</f>
         <v>Empty_G9</v>
@@ -3924,8 +3875,12 @@
       <c r="B72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <f>Concentration_ngul!$J$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f>Layout!$J$10</f>
         <v>Empty_H9</v>
@@ -3933,8 +3888,12 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <f>Concentration_ngul!$J$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>Layout!$K$3</f>
         <v>Empty_A10</v>
@@ -3942,8 +3901,12 @@
       <c r="B74" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <f>Concentration_ngul!$K$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>Layout!$K$4</f>
         <v>Empty_B10</v>
@@ -3951,8 +3914,12 @@
       <c r="B75" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <f>Concentration_ngul!$K$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f>Layout!$K$5</f>
         <v>Empty_C10</v>
@@ -3960,8 +3927,12 @@
       <c r="B76" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <f>Concentration_ngul!$K$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>Layout!$K$6</f>
         <v>Empty_D10</v>
@@ -3969,8 +3940,12 @@
       <c r="B77" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <f>Concentration_ngul!$K$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f>Layout!$K$7</f>
         <v>Empty_E10</v>
@@ -3978,8 +3953,12 @@
       <c r="B78" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <f>Concentration_ngul!$K$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f>Layout!$K$8</f>
         <v>Empty_F10</v>
@@ -3987,8 +3966,12 @@
       <c r="B79" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <f>Concentration_ngul!$K$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f>Layout!$K$9</f>
         <v>Empty_G10</v>
@@ -3996,8 +3979,12 @@
       <c r="B80" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <f>Concentration_ngul!$K$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f>Layout!$K$10</f>
         <v>Empty_H10</v>
@@ -4005,8 +3992,12 @@
       <c r="B81" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <f>Concentration_ngul!$K$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f>Layout!$L$3</f>
         <v>Empty_A11</v>
@@ -4014,8 +4005,12 @@
       <c r="B82" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <f>Concentration_ngul!$L$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f>Layout!$L$4</f>
         <v>Empty_B11</v>
@@ -4023,8 +4018,12 @@
       <c r="B83" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <f>Concentration_ngul!$L$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f>Layout!$L$5</f>
         <v>Empty_C11</v>
@@ -4032,8 +4031,12 @@
       <c r="B84" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <f>Concentration_ngul!$L$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f>Layout!$L$6</f>
         <v>Empty_D11</v>
@@ -4041,8 +4044,12 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <f>Concentration_ngul!$L$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f>Layout!$L$7</f>
         <v>Empty_E11</v>
@@ -4050,8 +4057,12 @@
       <c r="B86" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <f>Concentration_ngul!$L$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f>Layout!$L$8</f>
         <v>Empty_F11</v>
@@ -4059,8 +4070,12 @@
       <c r="B87" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <f>Concentration_ngul!$L$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f>Layout!$L$9</f>
         <v>Empty_G11</v>
@@ -4068,8 +4083,12 @@
       <c r="B88" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <f>Concentration_ngul!$L$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f>Layout!$L$10</f>
         <v>Empty_H11</v>
@@ -4077,8 +4096,12 @@
       <c r="B89" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <f>Concentration_ngul!$L$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f>Layout!$M$3</f>
         <v>Empty_A12</v>
@@ -4086,8 +4109,12 @@
       <c r="B90" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <f>Concentration_ngul!$M$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>Layout!$M$4</f>
         <v>Empty_B12</v>
@@ -4095,8 +4122,12 @@
       <c r="B91" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <f>Concentration_ngul!$M$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f>Layout!$M$5</f>
         <v>Empty_C12</v>
@@ -4104,8 +4135,12 @@
       <c r="B92" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <f>Concentration_ngul!$M$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f>Layout!$M$6</f>
         <v>Empty_D12</v>
@@ -4113,8 +4148,12 @@
       <c r="B93" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <f>Concentration_ngul!$M$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f>Layout!$M$7</f>
         <v>Empty_E12</v>
@@ -4122,8 +4161,12 @@
       <c r="B94" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <f>Concentration_ngul!$M$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f>Layout!$M$8</f>
         <v>Empty_F12</v>
@@ -4131,8 +4174,12 @@
       <c r="B95" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <f>Concentration_ngul!$M$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f>Layout!$M$9</f>
         <v>Empty_G12</v>
@@ -4140,14 +4187,22 @@
       <c r="B96" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <f>Concentration_ngul!$M$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f>Layout!$M$10</f>
         <v>Empty_H12</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
+      </c>
+      <c r="C97">
+        <f>Concentration_ngul!$M$10</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
